--- a/Biên bản check chéo/Biên bản check chéo.xlsx
+++ b/Biên bản check chéo/Biên bản check chéo.xlsx
@@ -1,22 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản check chéo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAE58E-2B1F-4F7B-BD13-8F4F59F5BF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Check Nhóm 9" sheetId="1" r:id="rId4"/>
+    <sheet name="Nhóm 9 L1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nhóm 9 L2" sheetId="6" r:id="rId2"/>
+    <sheet name="Nhóm 9 L3" sheetId="2" r:id="rId3"/>
+    <sheet name="Nhóm 9 L4" sheetId="7" r:id="rId4"/>
+    <sheet name="Nhóm 9 L5" sheetId="4" r:id="rId5"/>
+    <sheet name="Nhóm 9 L6" sheetId="5" r:id="rId6"/>
+    <sheet name="Nhóm 9 L7" sheetId="3" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t xml:space="preserve">BIÊN BẢN CHECK CHÉO </t>
-  </si>
-  <si>
-    <t>Thời gian: 26/03/2023</t>
   </si>
   <si>
     <t>Người thực hiện:  Bá Hiệp (mục 1)  Ích Sơn (mục 2 + 6)  Thanh Tâm (mục 3) Huyền Thương (mục 4) Ngọc Sơn (mục 5)</t>
@@ -66,54 +89,179 @@
   </si>
   <si>
     <t>Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>BIÊN BẢN CHECK CHÉO</t>
+  </si>
+  <si>
+    <t>Người thực hiện: Bá Hiệp, Ích Sơn, Thanh Tâm, Huyền Thương, Ngọc Sơn</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Thông tin đầy đủ, thời gian hoàn thành chính xác</t>
+  </si>
+  <si>
+    <t>Nhóm bạn có thêm phần kết quả đánh giá phản hồi của nhóm và khả năng tổ chức nhóm nhưng vẫn chưa điền nội dung bên trong, phần đóng góp nhóm cũng chưa hoàn thành. Các biên bản nên ghi ngày họp để dễ quan sát.</t>
+  </si>
+  <si>
+    <t>Thời gian trong video minh chứng không khớp với thời gian đã khai báo trong biên bản họp</t>
+  </si>
+  <si>
+    <t>Đã tạo được tài khoản github, không cập nhật github thường xuyên</t>
+  </si>
+  <si>
+    <t>Check nội dung báo cáo</t>
+  </si>
+  <si>
+    <t>Phiếu học tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm bạn có thêm phần kết quả đánh giá phản hồi của nhóm và khả năng tổ chức nhóm nhưng vẫn chưa điền nội dung bên trong. Chương trình họp (dòng 4), Vấn đề và giải pháp (dòng 2,3,4), Kế hoạch hành động (dòng 3,4) cũng chưa hoàn thành. </t>
+  </si>
+  <si>
+    <t>Thời gian trong video minh chứng không khớp với thời gian đã khai báo trong biên bản họp (Video dài 9p32 nhưng trong biên bản tổng thời gian là 15p)</t>
+  </si>
+  <si>
+    <t>Không cập nhật github thường xuyên. Đã đăng biên bản họp lên google drive nhưng chưa đăng lên github</t>
+  </si>
+  <si>
+    <t>Nhóm bạn có thêm phần kết quả đánh giá phản hồi của nhóm và khả năng tổ chức nhóm nhưng vẫn chưa điền nội dung bên trong. Kế hoạch hành động (dòng 4) nếu điền xong nội dung rồi thì nên xóa những dòng trống tránh gây hiểu lầm là chưa làm xong. Chưa điền đóng góp ý kiến</t>
+  </si>
+  <si>
+    <t>Thời gian trong video minh chứng không khớp với chương trình họp trong biên bản họp (Video dài 37p nhưng trong biên bản tổng thời gian là 60p)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời gian: 27/03/2023 </t>
+  </si>
+  <si>
+    <t>Nhóm bạn có thêm phần kết quả đánh giá phản hồi của nhóm và khả năng tổ chức nhóm nhưng vẫn chưa điền nội dung bên trong. Những mục khác đã đầy đủ</t>
+  </si>
+  <si>
+    <t>Khớp với biên bản. Độ dài phù hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đăng đầy đủ</t>
+  </si>
+  <si>
+    <t>Thời gian: 03/04/2023 check Tuần (27/3 -&gt; 2/4) Nhóm 9</t>
+  </si>
+  <si>
+    <t>Thời gian: 10/04/2023 check Tuần (3/4 -&gt; 9/4)</t>
+  </si>
+  <si>
+    <t>Thời gian: 17/04/2023 check Tuần (10/4 -&gt; 16/4)</t>
+  </si>
+  <si>
+    <t>Không có cuộc họp nào mới so với tuần trước</t>
+  </si>
+  <si>
+    <t>Thời gian: 24/04/2023 check Tuần (17/4 -&gt; 24/4)</t>
+  </si>
+  <si>
+    <t>Thời gian: 08/05/2023 check Tuần (1/5 -&gt; 7/5)</t>
+  </si>
+  <si>
+    <t>Thời gian: 15/05/2023 check Tuần (8/5 -&gt; 14/5)</t>
+  </si>
+  <si>
+    <t>Nhóm bạn có thêm phần kết quả đánh giá phản hồi của nhóm và khả năng tổ chức nhóm nhưng vẫn chưa điền nội dung bên trong. Chương trình họp (dòng 3, 4), Vấn đề và giải pháp (dòng 2,3), Kế hoạch hành động (dòng 3,4) nếu điền xong nội dung rồi thì nên xóa những dòng trống tránh gây hiểu lầm là chưa làm xong</t>
+  </si>
+  <si>
+    <t>Thời gian trong video minh chứng không khớp với thời gian đã khai báo trong biên bản họp (Video dài 37p nhưng trong biên bản tổng thời gian là 20p)</t>
+  </si>
+  <si>
+    <t>Không cập nhật github thường xuyên.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -133,33 +281,26 @@
         <bgColor rgb="FF85ADEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85ADEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="12">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -168,78 +309,247 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -429,146 +739,949 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.13"/>
-    <col customWidth="1" min="3" max="3" width="37.75"/>
-    <col customWidth="1" min="4" max="4" width="57.13"/>
+    <col min="1" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC917AC-A1D3-4B48-86C4-92F230734A6E}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236C99E-89A6-4224-B662-23D935165F58}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D50A6CF-563C-47EF-B62B-A6EE0A1A24B1}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="61.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F9E2C-7959-4587-8F39-0989BE8EE139}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243168B7-7617-41F1-A621-86D38A47E407}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="61.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3E7EE-9FAE-4162-8C17-B2E9474D8939}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="62.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Biên bản check chéo/Biên bản check chéo.xlsx
+++ b/Biên bản check chéo/Biên bản check chéo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản check chéo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản check chéo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAE58E-2B1F-4F7B-BD13-8F4F59F5BF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Nhóm 9 L1" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,9 @@
     <sheet name="Nhóm 9 L5" sheetId="4" r:id="rId5"/>
     <sheet name="Nhóm 9 L6" sheetId="5" r:id="rId6"/>
     <sheet name="Nhóm 9 L7" sheetId="3" r:id="rId7"/>
+    <sheet name="Nhóm 9 L8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t xml:space="preserve">BIÊN BẢN CHECK CHÉO </t>
   </si>
@@ -173,12 +173,27 @@
   </si>
   <si>
     <t>Không cập nhật github thường xuyên.</t>
+  </si>
+  <si>
+    <t>Thời gian: 15/05/2023 check Tuần (15/5 -&gt; 21/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phần nội dung chương trình họp , vấn đề và giải pháp được ghi rõ ràng. Đã đăng lên github nhưng nên ghi thêm ngày tháng ở githup để dễ theo dõi. </t>
+  </si>
+  <si>
+    <t>Âm thanh video nhỏ, không nghe rõ. Thời lượng video khá trùng khớp</t>
+  </si>
+  <si>
+    <t>Đã cập nhật github . Đã đăng video và sửa các mục</t>
+  </si>
+  <si>
+    <t>Đã có nội dung báo cáo được đưa vào</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -487,22 +502,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -512,19 +540,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -745,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -764,16 +779,16 @@
   <sheetData>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="3"/>
@@ -786,13 +801,13 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -891,10 +906,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC917AC-A1D3-4B48-86C4-92F230734A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -906,110 +921,110 @@
   <sheetData>
     <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1023,10 +1038,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236C99E-89A6-4224-B662-23D935165F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1038,110 +1053,110 @@
   <sheetData>
     <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1156,10 +1171,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D50A6CF-563C-47EF-B62B-A6EE0A1A24B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1171,110 +1186,110 @@
   <sheetData>
     <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1288,10 +1303,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F9E2C-7959-4587-8F39-0989BE8EE139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1304,110 +1319,110 @@
   <sheetData>
     <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1421,10 +1436,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243168B7-7617-41F1-A621-86D38A47E407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1437,110 +1452,110 @@
   <sheetData>
     <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1554,11 +1569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3E7EE-9FAE-4162-8C17-B2E9474D8939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1570,110 +1585,110 @@
   <sheetData>
     <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1684,4 +1699,136 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="4:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="13"/>
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="4:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="13"/>
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="4:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="15">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biên bản check chéo/Biên bản check chéo.xlsx
+++ b/Biên bản check chéo/Biên bản check chéo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản check chéo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản check chéo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7517828-D74A-4446-8187-E59AC3AC290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhóm 9 L1" sheetId="1" r:id="rId1"/>
@@ -20,24 +21,15 @@
     <sheet name="Nhóm 9 L6" sheetId="5" r:id="rId6"/>
     <sheet name="Nhóm 9 L7" sheetId="3" r:id="rId7"/>
     <sheet name="Nhóm 9 L8" sheetId="8" r:id="rId8"/>
+    <sheet name="Nhóm 9 L9" sheetId="9" r:id="rId9"/>
+    <sheet name="Nhóm 9 L10" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="57">
   <si>
     <t xml:space="preserve">BIÊN BẢN CHECK CHÉO </t>
   </si>
@@ -175,9 +167,6 @@
     <t>Không cập nhật github thường xuyên.</t>
   </si>
   <si>
-    <t>Thời gian: 15/05/2023 check Tuần (15/5 -&gt; 21/5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phần nội dung chương trình họp , vấn đề và giải pháp được ghi rõ ràng. Đã đăng lên github nhưng nên ghi thêm ngày tháng ở githup để dễ theo dõi. </t>
   </si>
   <si>
@@ -188,12 +177,36 @@
   </si>
   <si>
     <t>Đã có nội dung báo cáo được đưa vào</t>
+  </si>
+  <si>
+    <t>Phần nội dung chương trình họp chưa xong (còn mục 4) , vấn đề và giải pháp (còn mục 2 3 4), Kế hoạch hành động chưa làm . Đã đăng lên github.</t>
+  </si>
+  <si>
+    <t>Video có thời lượng đảm bảo, đúng thời gian, thời gian họp khớp với biên bản</t>
+  </si>
+  <si>
+    <t>Thời gian: 22/05/2023 check Tuần (15/5 -&gt; 21/5)</t>
+  </si>
+  <si>
+    <t>Thời gian: 29/05/2023 check Tuần (22/5 -&gt; 28/5)</t>
+  </si>
+  <si>
+    <t>Thời gian: 5/06/2023 check Tuần (29/5 -&gt; 4/6)</t>
+  </si>
+  <si>
+    <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>Video có thời lượng đảm bảo, đúng thời gian.</t>
+  </si>
+  <si>
+    <t>Đã cập nhật github . Đã đăng video.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -760,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -905,8 +918,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A71A8C-DD6E-4E77-BAAA-A32C78D36AF7}">
+  <dimension ref="B1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -1038,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1171,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1303,7 +1449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1436,10 +1582,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1569,11 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1702,17 +1848,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="33.109375" customWidth="1"/>
-    <col min="6" max="6" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1726,7 +1872,7 @@
     <row r="4" spans="4:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="13"/>
       <c r="E4" s="27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -1747,7 +1893,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="4:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:6" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="15">
         <v>2</v>
       </c>
@@ -1777,10 +1923,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="15">
         <v>3</v>
       </c>
@@ -1788,7 +1934,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="4:6" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1799,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="4:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1810,10 +1956,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" ht="54.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="15">
         <v>6</v>
       </c>
@@ -1831,4 +1977,136 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A537A8-48F2-4C94-B241-F210A4B7EC05}">
+  <dimension ref="B1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13"/>
+      <c r="C3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="54.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biên bản check chéo/Biên bản check chéo.xlsx
+++ b/Biên bản check chéo/Biên bản check chéo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản check chéo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGDD\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAE58E-2B1F-4F7B-BD13-8F4F59F5BF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE04C9D-B6B9-4BC7-920C-0A9FBE9AD877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhóm 9 L1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,17 @@
     <sheet name="Nhóm 9 L5" sheetId="4" r:id="rId5"/>
     <sheet name="Nhóm 9 L6" sheetId="5" r:id="rId6"/>
     <sheet name="Nhóm 9 L7" sheetId="3" r:id="rId7"/>
+    <sheet name="Nhóm 9 L8" sheetId="8" r:id="rId8"/>
+    <sheet name="Nhóm 9 L9" sheetId="9" r:id="rId9"/>
+    <sheet name="Nhóm 9 L10" sheetId="11" r:id="rId10"/>
+    <sheet name="Nhóm 9 L11" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="61">
   <si>
     <t xml:space="preserve">BIÊN BẢN CHECK CHÉO </t>
   </si>
@@ -173,6 +166,54 @@
   </si>
   <si>
     <t>Không cập nhật github thường xuyên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phần nội dung chương trình họp , vấn đề và giải pháp được ghi rõ ràng. Đã đăng lên github nhưng nên ghi thêm ngày tháng ở githup để dễ theo dõi. </t>
+  </si>
+  <si>
+    <t>Âm thanh video nhỏ, không nghe rõ. Thời lượng video khá trùng khớp</t>
+  </si>
+  <si>
+    <t>Đã cập nhật github . Đã đăng video và sửa các mục</t>
+  </si>
+  <si>
+    <t>Đã có nội dung báo cáo được đưa vào</t>
+  </si>
+  <si>
+    <t>Phần nội dung chương trình họp chưa xong (còn mục 4) , vấn đề và giải pháp (còn mục 2 3 4), Kế hoạch hành động chưa làm . Đã đăng lên github.</t>
+  </si>
+  <si>
+    <t>Video có thời lượng đảm bảo, đúng thời gian, thời gian họp khớp với biên bản</t>
+  </si>
+  <si>
+    <t>Thời gian: 22/05/2023 check Tuần (15/5 -&gt; 21/5)</t>
+  </si>
+  <si>
+    <t>Thời gian: 29/05/2023 check Tuần (22/5 -&gt; 28/5)</t>
+  </si>
+  <si>
+    <t>Thời gian: 5/06/2023 check Tuần (29/5 -&gt; 4/6)</t>
+  </si>
+  <si>
+    <t>Chưa làm</t>
+  </si>
+  <si>
+    <t>Video có thời lượng đảm bảo, đúng thời gian.</t>
+  </si>
+  <si>
+    <t>Đã cập nhật github . Đã đăng video.</t>
+  </si>
+  <si>
+    <t>Thời gian: 12/06/2023 check Tuần (6/6 -&gt; 13/6)</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành hầu hết các nội dung đề ra tuần trước đó. Đề nghị nhóm hoàn thành báo cáo.</t>
+  </si>
+  <si>
+    <t>Âm thanh video ổn, nghe được. Thời lượng video khá trùng khớp</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,22 +528,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -512,24 +566,17 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,30 +802,30 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" customWidth="1"/>
+    <col min="1" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="57.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -786,19 +833,19 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -810,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9">
         <v>1</v>
@@ -822,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9">
         <v>2</v>
@@ -834,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="64.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>3</v>
@@ -846,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <v>4</v>
@@ -858,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9">
         <v>5</v>
@@ -870,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>6</v>
@@ -890,126 +937,393 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A71A8C-DD6E-4E77-BAAA-A32C78D36AF7}">
+  <dimension ref="B1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="63.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="55.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="51.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA796FF-F67F-4E09-8201-EA4AD57FAA75}">
+  <dimension ref="C4:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="3:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="13"/>
+      <c r="D6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="13"/>
+      <c r="D7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="3:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="3:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="3:5" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="15">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC917AC-A1D3-4B48-86C4-92F230734A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
+    <col min="4" max="4" width="61.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+    <row r="9" spans="2:4" ht="37.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+    <row r="10" spans="2:4" ht="70.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:4" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1023,125 +1337,125 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4236C99E-89A6-4224-B662-23D935165F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" customWidth="1"/>
+    <col min="4" max="4" width="62.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="34.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+    <row r="9" spans="2:4" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:4" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1156,125 +1470,125 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D50A6CF-563C-47EF-B62B-A6EE0A1A24B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="61.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+    <row r="12" spans="2:4" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:4" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+    <row r="14" spans="2:4" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1288,126 +1602,126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F9E2C-7959-4587-8F39-0989BE8EE139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+    <row r="9" spans="2:4" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+    <row r="10" spans="2:4" ht="103.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+    <row r="12" spans="2:4" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:4" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+    <row r="14" spans="2:4" ht="46.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1421,126 +1735,126 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243168B7-7617-41F1-A621-86D38A47E407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="61.109375" customWidth="1"/>
+    <col min="4" max="4" width="61.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+    <row r="9" spans="2:4" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:4" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+    <row r="14" spans="2:4" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1554,126 +1868,126 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A3E7EE-9FAE-4162-8C17-B2E9474D8939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="62.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="62.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="2:4" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="2:4" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
       <c r="C4" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="2:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+    <row r="11" spans="2:4" ht="67.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+    <row r="12" spans="2:4" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
         <v>4</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17">
+    <row r="13" spans="2:4" ht="36.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1684,4 +1998,268 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="D2:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="33.08984375" customWidth="1"/>
+    <col min="6" max="6" width="55.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="4:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="13"/>
+      <c r="E4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="4:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="13"/>
+      <c r="E5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="4:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="4:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="4:6" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="49.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="85.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="52.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="15">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="15">
+        <v>5</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A537A8-48F2-4C94-B241-F210A4B7EC05}">
+  <dimension ref="B1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="59.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="43.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="78.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="49.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>